--- a/feb-8-class-copy-xlsx.xlsx
+++ b/feb-8-class-copy-xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vipul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D89784-5C69-46BA-AA4C-5AC17494360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD26DE54-0CD6-42AC-80C0-94DC4BCF15A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{41A0F3ED-8CA0-4EE6-839E-07DCE938B232}"/>
   </bookViews>
@@ -32490,8 +32490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21153753-26DA-497F-88BA-CE547A115ED3}">
   <dimension ref="P23:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="I21" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32754,9 +32754,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
